--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ackr4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H2">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N2">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q2">
-        <v>0.0005922300846666667</v>
+        <v>0.02984300184133333</v>
       </c>
       <c r="R2">
-        <v>0.005330070762</v>
+        <v>0.268587016572</v>
       </c>
       <c r="S2">
-        <v>0.002680336425899758</v>
+        <v>0.06488274490739254</v>
       </c>
       <c r="T2">
-        <v>0.002680336425899758</v>
+        <v>0.06488274490739251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H3">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I3">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J3">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>1.06804</v>
       </c>
       <c r="O3">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P3">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q3">
-        <v>0.01789524754222222</v>
+        <v>0.02815400908444445</v>
       </c>
       <c r="R3">
-        <v>0.16105722788</v>
+        <v>0.25338608176</v>
       </c>
       <c r="S3">
-        <v>0.08099096124930623</v>
+        <v>0.06121064493640788</v>
       </c>
       <c r="T3">
-        <v>0.08099096124930624</v>
+        <v>0.06121064493640786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H4">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I4">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J4">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,42 +679,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N4">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q4">
-        <v>0.003980119262777779</v>
+        <v>0.005515026744888889</v>
       </c>
       <c r="R4">
-        <v>0.035821073365</v>
+        <v>0.04963524070400001</v>
       </c>
       <c r="S4">
-        <v>0.01801336831014424</v>
+        <v>0.01199041823435031</v>
       </c>
       <c r="T4">
-        <v>0.01801336831014424</v>
+        <v>0.01199041823435031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05026566666666667</v>
+        <v>0.07720866666666666</v>
       </c>
       <c r="H5">
-        <v>0.150797</v>
+        <v>0.231626</v>
       </c>
       <c r="I5">
-        <v>0.1293799590917827</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J5">
-        <v>0.1293799590917827</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1217406666666667</v>
+        <v>0.377371</v>
       </c>
       <c r="N5">
-        <v>0.365222</v>
+        <v>1.132113</v>
       </c>
       <c r="O5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q5">
-        <v>0.006119375770444445</v>
+        <v>0.02913631174866666</v>
       </c>
       <c r="R5">
-        <v>0.055074381934</v>
+        <v>0.262226805738</v>
       </c>
       <c r="S5">
-        <v>0.02769529310643246</v>
+        <v>0.06334630453001848</v>
       </c>
       <c r="T5">
-        <v>0.02769529310643246</v>
+        <v>0.06334630453001845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,10 +791,10 @@
         <v>0.231626</v>
       </c>
       <c r="I6">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J6">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.011782</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N6">
-        <v>0.035346</v>
+        <v>1.06804</v>
       </c>
       <c r="O6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q6">
-        <v>0.0009096725106666665</v>
+        <v>0.02748731478222222</v>
       </c>
       <c r="R6">
-        <v>0.008187052596</v>
+        <v>0.24738583304</v>
       </c>
       <c r="S6">
-        <v>0.004117028886419872</v>
+        <v>0.05976116084723074</v>
       </c>
       <c r="T6">
-        <v>0.004117028886419872</v>
+        <v>0.05976116084723073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,134 +853,134 @@
         <v>0.231626</v>
       </c>
       <c r="I7">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J7">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3560133333333333</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N7">
-        <v>1.06804</v>
+        <v>0.209216</v>
       </c>
       <c r="O7">
-        <v>0.6259930967504086</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P7">
-        <v>0.6259930967504087</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q7">
-        <v>0.02748731478222222</v>
+        <v>0.005384429468444444</v>
       </c>
       <c r="R7">
-        <v>0.24738583304</v>
+        <v>0.048459865216</v>
       </c>
       <c r="S7">
-        <v>0.1244030875304668</v>
+        <v>0.01170648199300984</v>
       </c>
       <c r="T7">
-        <v>0.1244030875304668</v>
+        <v>0.01170648199300984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.07720866666666666</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H8">
-        <v>0.231626</v>
+        <v>0.117518</v>
       </c>
       <c r="I8">
-        <v>0.1987291683826154</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J8">
-        <v>0.1987291683826154</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.07918166666666666</v>
+        <v>0.377371</v>
       </c>
       <c r="N8">
-        <v>0.237545</v>
+        <v>1.132113</v>
       </c>
       <c r="O8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q8">
-        <v>0.006113510907777777</v>
+        <v>0.01478262839266667</v>
       </c>
       <c r="R8">
-        <v>0.05502159817</v>
+        <v>0.133043655534</v>
       </c>
       <c r="S8">
-        <v>0.02766874969797455</v>
+        <v>0.03213944468996879</v>
       </c>
       <c r="T8">
-        <v>0.02766874969797456</v>
+        <v>0.03213944468996878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.07720866666666666</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H9">
-        <v>0.231626</v>
+        <v>0.117518</v>
       </c>
       <c r="I9">
-        <v>0.1987291683826154</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J9">
-        <v>0.1987291683826154</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1217406666666667</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N9">
-        <v>0.365222</v>
+        <v>1.06804</v>
       </c>
       <c r="O9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q9">
-        <v>0.009399434552444444</v>
+        <v>0.01394599163555556</v>
       </c>
       <c r="R9">
-        <v>0.084594910972</v>
+        <v>0.12551392472</v>
       </c>
       <c r="S9">
-        <v>0.04254030226775415</v>
+        <v>0.03032048259023107</v>
       </c>
       <c r="T9">
-        <v>0.04254030226775416</v>
+        <v>0.03032048259023107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,93 +1018,93 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03917266666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.117518</v>
+      </c>
+      <c r="I10">
+        <v>0.06839933974190335</v>
+      </c>
+      <c r="J10">
+        <v>0.06839933974190333</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.2610376666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.7831129999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.671890872525602</v>
-      </c>
-      <c r="J10">
-        <v>0.671890872525602</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.011782</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N10">
-        <v>0.035346</v>
+        <v>0.209216</v>
       </c>
       <c r="O10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q10">
-        <v>0.003075545788666667</v>
+        <v>0.002731849543111111</v>
       </c>
       <c r="R10">
-        <v>0.02767991209799999</v>
+        <v>0.024586645888</v>
       </c>
       <c r="S10">
-        <v>0.01391941682855519</v>
+        <v>0.005939412461703479</v>
       </c>
       <c r="T10">
-        <v>0.01391941682855519</v>
+        <v>0.005939412461703478</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2610376666666667</v>
+        <v>0.3772426666666667</v>
       </c>
       <c r="H11">
-        <v>0.7831129999999999</v>
+        <v>1.131728</v>
       </c>
       <c r="I11">
-        <v>0.671890872525602</v>
+        <v>0.658702904809687</v>
       </c>
       <c r="J11">
-        <v>0.671890872525602</v>
+        <v>0.6587029048096869</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,152 +1113,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3560133333333333</v>
+        <v>0.377371</v>
       </c>
       <c r="N11">
-        <v>1.06804</v>
+        <v>1.132113</v>
       </c>
       <c r="O11">
-        <v>0.6259930967504086</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P11">
-        <v>0.6259930967504087</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q11">
-        <v>0.09293288983555555</v>
+        <v>0.1423604423626667</v>
       </c>
       <c r="R11">
-        <v>0.8363960085199998</v>
+        <v>1.281243981264</v>
       </c>
       <c r="S11">
-        <v>0.4205990479706356</v>
+        <v>0.3095109639381967</v>
       </c>
       <c r="T11">
-        <v>0.4205990479706357</v>
+        <v>0.3095109639381966</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2610376666666667</v>
+        <v>0.3772426666666667</v>
       </c>
       <c r="H12">
-        <v>0.7831129999999999</v>
+        <v>1.131728</v>
       </c>
       <c r="I12">
-        <v>0.671890872525602</v>
+        <v>0.658702904809687</v>
       </c>
       <c r="J12">
-        <v>0.671890872525602</v>
+        <v>0.6587029048096869</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.07918166666666666</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N12">
-        <v>0.237545</v>
+        <v>1.06804</v>
       </c>
       <c r="O12">
-        <v>0.139228427931141</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P12">
-        <v>0.139228427931141</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q12">
-        <v>0.02066939750944444</v>
+        <v>0.1343034192355556</v>
       </c>
       <c r="R12">
-        <v>0.186024577585</v>
+        <v>1.20873077312</v>
       </c>
       <c r="S12">
-        <v>0.09354630992302221</v>
+        <v>0.2919938998355744</v>
       </c>
       <c r="T12">
-        <v>0.09354630992302222</v>
+        <v>0.2919938998355743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3772426666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.131728</v>
+      </c>
+      <c r="I13">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="J13">
+        <v>0.6587029048096869</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.2610376666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.7831129999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.671890872525602</v>
-      </c>
-      <c r="J13">
-        <v>0.671890872525602</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M13">
-        <v>0.1217406666666667</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N13">
-        <v>0.365222</v>
+        <v>0.209216</v>
       </c>
       <c r="O13">
-        <v>0.2140616931775755</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P13">
-        <v>0.2140616931775755</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q13">
-        <v>0.03177889956511111</v>
+        <v>0.02630840058311111</v>
       </c>
       <c r="R13">
-        <v>0.286010096086</v>
+        <v>0.236775605248</v>
       </c>
       <c r="S13">
-        <v>0.1438260978033889</v>
+        <v>0.05719804103591582</v>
       </c>
       <c r="T13">
-        <v>0.1438260978033889</v>
+        <v>0.05719804103591581</v>
       </c>
     </row>
   </sheetData>
